--- a/src/test/resources/TestData/ScrappedRecipes.xlsx
+++ b/src/test/resources/TestData/ScrappedRecipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2146cd726dde662f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D906ED84-7061-4FDC-94CB-6DCD48924DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{D906ED84-7061-4FDC-94CB-6DCD48924DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000A7D4E-9F12-4BA3-A5BC-7970D1E2066A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pcos_Recipes" sheetId="1" r:id="rId1"/>
@@ -9446,9 +9446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -11034,7 +11036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/ScrappedRecipes.xlsx
+++ b/src/test/resources/TestData/ScrappedRecipes.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2146cd726dde662f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2146cd726dde662f/Desktop/Sdet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{D906ED84-7061-4FDC-94CB-6DCD48924DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000A7D4E-9F12-4BA3-A5BC-7970D1E2066A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="14_{D906ED84-7061-4FDC-94CB-6DCD48924DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AAC95AE-5ED1-44CA-8454-58390C689A82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pcos_Recipes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1498">
   <si>
     <t>Recipe Id</t>
   </si>
@@ -3603,9 +3603,6 @@
     <t>4623</t>
   </si>
   <si>
-    <t>Broccoli Broth, Healthy Clear Broccoli Carrot Soup</t>
-  </si>
-  <si>
     <t>For Broccoli Broth
 1 cup broccoli florets
 1 tsp olive oil
@@ -3926,35 +3923,6 @@
   </si>
   <si>
     <t>https://tarladalal.com/buckwheat-dhoklas-5282r</t>
-  </si>
-  <si>
-    <t>42256</t>
-  </si>
-  <si>
-    <t>How To Roast Flaxseeds, Roasted Flaxseeds</t>
-  </si>
-  <si>
-    <t>For Roasted Flaxseeds
-1/2 cup flax seeds</t>
-  </si>
-  <si>
-    <t>For roasted flaxseeds
-Put the flaxseeds in a small non-stick pan.
-Dry roast them on a medium flame for 3 minutes, make sure you stir it occasionally.
-Cool them completely on a big plate.
-Store the healthy roasted alsi in an air-tight container. Use as required.</t>
-  </si>
-  <si>
-    <t>Energy 67 cal
-Protein 2.3 g
-Carbohydrates 3.6 g
-Fiber 3.4 g
-Fat 5.3 g
-Cholesterol 0 mg
-Sodium 3.8 mg</t>
-  </si>
-  <si>
-    <t>https://tarladalal.com/how-to-roast-flaxseeds-roasted-flaxseeds-42256r</t>
   </si>
   <si>
     <t>38809</t>
@@ -9076,6 +9044,510 @@
   </si>
   <si>
     <t>https://tarladalal.com/cabbage-paratha-15154r</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>Mixed Sprouts Fruits and Veggie Salad</t>
+  </si>
+  <si>
+    <t>For Mixed Sprouts Fruits and Veggie Salad
+1 cup boiled mixed sprouts (moong , matki , chana etc.)
+1/2 cup apple cubes
+1/2 cup orange cubes
+1/2 cup black grape halves
+1/2 cup grated radish (mooli)
+1/2 cup grated carrot
+1/2 cup shredded iceberg lettuce
+salt to taste
+To Be Mixed Into A Dressing
+1/2 cup curds (dahi)
+2 tbsp finely chopped mint leaves (phudina)
+1/4 tsp mustard (rai / sarson) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>For mixed sprouts fruits and veggie salad
+To make mixed sprouts fruits and veggie salad, combine all the ingredients in a deep bowl and toss well.
+Add the dressing and toss well.
+Serve the mixed sprouts fruits and veggie salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 87 cal
+Protein 4 g
+Carbohydrates 13.7 g
+Fiber 1.8 g
+Fat 1.4 g
+Cholesterol 2.7 mg
+Sodium 19.5 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/mixed-sprouts-fruits-and-veggie-salad-801r</t>
+  </si>
+  <si>
+    <t>22306</t>
+  </si>
+  <si>
+    <t>Carrot Cabbage and Buckwheat Pancake, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>For Carrot Cabbage and Buckwheat Pancake
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup buckwheat (kuttu or kutti no daro)
+1 tsp ginger (adrak) paste
+1 tsp green chilli paste
+1 tsp roasted and crushed cumin seeds (jeera)
+1 tsp dried mango powder (amchur)
+1/8 tsp salt
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For carrot cabbage and buckwheat pancake
+Clean, wash and soak the buckwheat in ½ cup water in a deep bowl and keep aside for 20 minutes.
+Blend the soaked buckwheat in a mixer along with the water till smooth.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick mini pancake pan and grease it with ½ tsp of oil.
+Pour 1 tbsp of the batter into each of the 7 pancake moulds and spread it in a circular motion to make a 63 mm. (2½") diameter round.
+Cook them till they turn golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 10 more mini pancakes in 2 more batches.
+Serve the carrot cabbage and buckwheat pancake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 19 cal
+Protein 0.5 g
+Carbohydrates 2.9 g
+Fiber 0.4 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 24.2 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/carrot-cabbage-and-buckwheat-pancake-low-salt-recipe-22306r</t>
+  </si>
+  <si>
+    <t>4804</t>
+  </si>
+  <si>
+    <t>Palak Toovar Dal ( Calcium Rich Recipe)</t>
+  </si>
+  <si>
+    <t>2 cups chopped spinach (palak)
+1/2 cup toovar (arhar) dal
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+2 tbsp chopped coriander (dhania)
+salt to taste
+For The Tempering
+3 bayleaves (tejpatta)
+3 cloves (laung / lavang)
+3 whole dry kashmiri red chillies
+1/2 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1 tsp oil</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the toovar dal for 15 to 20 minutes. Drain and keep aside.
+Combine the soaked toovar dal, ginger, green chillies, turmeric powder, salt and 3 cups of water and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+For the tempering, heat the oil in a pan. Add the bay leaves, cloves, red chillies, cumin seeds and asafoetida.
+When the cumin seeds crackle, add the spinach and sauté for 2 minutes.
+Add the cooked dal, chilli powder and coriander and simmer for 5 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 119 cal
+Protein 7.1 g
+Carbohydrates 17.2 g
+Fiber 3.7 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 35.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/palak-toovar-dal--calcium-rich-recipe-4804r</t>
+  </si>
+  <si>
+    <t>37602</t>
+  </si>
+  <si>
+    <t>Carrot and Coriander Soup</t>
+  </si>
+  <si>
+    <t>For Carrot and Coriander Soup
+2 cups carrot cubes
+2 tbsp finely chopped coriander (dhania)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>For carrot and coriander soup
+To make the carrot and coriander soup, combine the carrot and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Transfer the carrot along with the water into a deep bowl, add the coriander and blend using a hand blender to a coarse mixture.
+Transfer the carrot-coriander mixture into a deep non-stick pan, add ½ cup of water, salt and pepper, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the carrot and coriander soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.6 g
+Carbohydrates 6.1 g
+Fiber 2.6 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 21.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/carrot-and-coriander-soup-37602r</t>
+  </si>
+  <si>
+    <t>41520</t>
+  </si>
+  <si>
+    <t>Mini Quinoa Pancakes, Ibs Recipe</t>
+  </si>
+  <si>
+    <t>1 cup quinoa flour
+1/2 cup grated carrot
+1/2 cup chopped spinach (palak)
+1/4 cup grated potatoes
+salt to taste
+1/2 tsp oil for greasing</t>
+  </si>
+  <si>
+    <t>Combine all ingredients along with ¾ cup of water in a deep bowl and mix well.
+Heat a non-stick mini uttapa pan and grease with ¼ tsp of oil. Pour 1 tbsp of the batter into each uttapa mould, spread it evenly and cook on a medium flame till they turn golden brown in colour from both the sides.
+Repeat step 2 to make 7 more mini pancakes in 1 more batch.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 40 cal
+Protein 1.4 g
+Carbohydrates 6.5 g
+Fiber 0.2 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 2.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/mini-quinoa-pancakes-ibs-recipe-41520r</t>
+  </si>
+  <si>
+    <t>40377</t>
+  </si>
+  <si>
+    <t>Baked Masala Sev</t>
+  </si>
+  <si>
+    <t>1 cup besan (bengal gram flour)
+1/4 cup fresh tomato pulp
+1/4 tsp asafoetida (hing)
+1/4 tsp turmeric powder (haldi)
+1 1/2 tsp chilli powder
+1/4 tsp freshly ground black pepper (kalimirch)
+1 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl, mix well and knead into a soft dough without using any water.
+Shape the dough into a cylindrical roll, fill the dough into the “sev press” and press out thin strands onto a greased baking tray.
+Bake in a pre-heated oven at 200°c (400°f) for 14 minutes, turn them over after 9 minutes then break into pieces and bake again for 5 minutes, while tossing twice in between.
+Cool, break them into pieces, store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 667 cal
+Protein 34.6 g
+Carbohydrates 100.2 g
+Fiber 26.1 g
+Fat 14.3 g
+Cholesterol 0 mg
+Sodium 127.5 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/baked-masala-sev-40377r</t>
+  </si>
+  <si>
+    <t>35074</t>
+  </si>
+  <si>
+    <t>Khumbh Palak</t>
+  </si>
+  <si>
+    <t>3 cups sliced mushrooms (khumbh)
+For The Spinach Paste
+4 cups chopped spinach (palak)
+1 tsp roughly chopped ginger (adrak)
+2 tsp roughly chopped green chillies
+2 tsp roughly chopped garlic (lehsun)
+To Be Ground Into A Smooth Tomato Paste
+2 cups roughly chopped tomatoes
+1 tsp roughly chopped ginger (adrak)
+2 tsp roughly chopped green chillies
+2 tsp roughly chopped garlic (lehsun)
+Other Ingredients
+2 tsp oil
+1 big cardamom (elaichi)
+1 cardamom (elaichi)
+1 cup onion paste
+1 tsp garam masala
+salt to taste</t>
+  </si>
+  <si>
+    <t>For the spinach paste
+Combine all the ingredients along with 1 cup of water in a deep non-stick pan, mix well and cook on a medium flame for 6 minutes.
+Cool slightly and blend in a mixer to a smooth paste. Keep aside.
+How to proceed
+Heat the oil in a deep non-stick kadhai, add big cardamom and cardamom and sauté on a medium flame for 10 seconds.
+Add the onion paste and sauté on a medium flame for 5 minutes.
+Add the prepared tomato paste, mix well and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the spinach paste, garam masala and salt, mix will and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the mushrooms, mix well and cook on a medium flame for 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 101 cal
+Protein 3.9 g
+Carbohydrates 14.3 g
+Fiber 4 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 54.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/khumbh-palak-35074r</t>
+  </si>
+  <si>
+    <t>38597</t>
+  </si>
+  <si>
+    <t>Mooli Jowar ki Roti ( Gluten Free Recipe )</t>
+  </si>
+  <si>
+    <t>1/2 cup grated white radish (mooli)
+1 cup jowar (white millet) flour
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp chilli powder
+1 tbsp oil
+salt to taste
+oil for cooking
+For Serving
+fresh curd</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a soft dough, using enough hot water.
+Divide the dough into 6 equal portions and roll out each portion between two sheets of greased plastic into a circle of 100 mm (4") diameter.
+Heat non-stick tava (griddle) and cook each roti using a little oil, till it turns golden brown in colour from both sides.
+Serve hot with fresh curds.
+Variation: jowar pyaz ki roti
+In this recipe, replace ½ cup of radish with ½ cup of finely chopped onions.</t>
+  </si>
+  <si>
+    <t>Energy 104 cal
+Protein 1.8 g
+Carbohydrates 12.2 g
+Fiber 1.8 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/mooli-jowar-ki-roti----gluten-free-recipe--38597r</t>
+  </si>
+  <si>
+    <t>41367</t>
+  </si>
+  <si>
+    <t>Whole Wheat Vegetable Cheela, Atte ka Cheela</t>
+  </si>
+  <si>
+    <t>For Whole Wheat Vegetable Cheela
+1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped onions
+1/4 cup grated carrot
+1/2 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+5 1/4 tsp oil for greasing and cooking
+For Serving With Whole Wheat Vegetable Cheela
+chutney
+sambhar</t>
+  </si>
+  <si>
+    <t>For whole wheat vegetable cheela
+To whole wheat vegetable cheela, combine the flour, salt and 1¼ cups of water in a deep bowl and mix well using a whisk.
+Add all the remaining ingredients, and mix well using a spatula.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Grease it with ¼ tsp of oil and pour a ladleful of the batter on it and spread it in a circular motion to make a 150 mm. (6”) diameter thin circle.
+Smear ½ tsp of oil over it and along the edges and cook on a medium flame till the cheela turns light brown in colour from both the sides.
+Repeat steps 3 to 5 to make 9 more cheelas.
+Serve the whole wheat vegetable cheela immediately with chutney and sambhar.</t>
+  </si>
+  <si>
+    <t>Energy 94 cal
+Protein 2.5 g
+Carbohydrates 14.9 g
+Fiber 2.6 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 5.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/whole-wheat-vegetable-cheela-atte-ka-cheela-41367r</t>
+  </si>
+  <si>
+    <t>7463</t>
+  </si>
+  <si>
+    <t>Gavarfali ki Sukhi Subzi</t>
+  </si>
+  <si>
+    <t>For Gavarfali ki Sukhi Subzi
+2 cups cluster beans (gavarfali) , cut into 25 mm. pieces
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1 tsp garlic (lehsun) paste
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>For gavarfali ki sukhi subzi
+To make gavarfali ki sukhi sabzi, heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions, garlic paste and turmeric powder and sauté on a medium flame for 2 minutes.
+Add the cluster beans, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and 1 tbsp of water, mix well. Cover with a lid and again cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the gavarfali ki sukhi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 52 cal
+Protein 2.5 g
+Carbohydrates 10 g
+Fiber 4.1 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 0.9 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/gavarfali-ki-sukhi-subzi-7463r</t>
+  </si>
+  <si>
+    <t>41334</t>
+  </si>
+  <si>
+    <t>Mixed Sprouts Soup</t>
+  </si>
+  <si>
+    <t>2 cups mixed sprouts
+salt to taste
+1 tsp oil
+1 tsp finely chopped garlic (lehsun)
+1/4 cup finely chopped onions
+1/4 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>Combine the mixed sprouts and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer till smooth using 2 cups of water. Keep aside.
+Heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 minute.
+Add the prepared mixture and pepper powder, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 97 cal
+Protein 5.3 g
+Carbohydrates 14.9 g
+Fiber 4 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 4.9 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/mixed-sprouts-soup-41334r</t>
+  </si>
+  <si>
+    <t>41335</t>
+  </si>
+  <si>
+    <t>Broccoli and Red Capsicum Soup</t>
+  </si>
+  <si>
+    <t>1 1/2 cups broccoli florets
+1 cup roughly chopped red capsicum
+1 tsp oil
+2 tsp roughly chopped garlic (lehsun)
+1/2 cup roughly chopped onions
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 2 minutes.
+Add the broccoli, red capsicum and salt and sauté on a medium flame for 3 minutes.
+Add 1½ cups of hot water, mix well. Cover with a lid and cook on a medium flame for 4 minutes, while stirring occasionally.
+Cool and blend in a mixer till smooth.
+Transfer the mixture back into the same non-stick pan, add the pepper powder and ¼ cup of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 1.6 g
+Carbohydrates 5.4 g
+Fiber 1.4 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 4.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/broccoli-and-red-capsicum-soup-41335r</t>
+  </si>
+  <si>
+    <t>33650</t>
+  </si>
+  <si>
+    <t>Vegetable and Basil Soup, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>For Vegetable and Basil Soup
+1/2 cup finely chopped onions
+3/4 cup finely chopped coloured capsicum
+1/4 cup finely chopped french beans
+1/4 cup finely chopped carrot
+1/4 cup finely chopped cabbage
+2 tbsp finely chopped celery (ajmoda)
+1/4 cup fresh basil leaves
+2 tsp olive oil
+1 tsp finely chopped garlic (lehsun)
+1/2 tsp finely chopped green chillies
+4 cups vegetable stock
+salt and to taste
+For The Garnish
+4 basil leaves</t>
+  </si>
+  <si>
+    <t>Heat the olive oil in a deep non-stick pan, add the garlic and green chillies and sauté on a medium flame for 10 seconds.
+Add the onions, coloured capsicum, french beans, carrot, cabbage and celery and sauté on a medium flame for 3 to 4 minutes.
+Add the vegetable stock and salt, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Meanwhile, combine the basil leaves along with ¼ cup of water and blend in a mixer till smooth.
+Add the basil mixture and black pepper powder to the soup, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve immediately garnished with basil leaves.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 1.8 g
+Carbohydrates 9.9 g
+Fiber 3.2 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 34.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/vegetable-and-basil-soup-healthy-diabetic-recipe-33650r</t>
+  </si>
+  <si>
+    <t>broccoli broth | healthy veg clear broccoli carrot soup | veg broccoli carrot broth |</t>
   </si>
 </sst>
 </file>
@@ -9145,6 +9617,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9446,8 +9922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11034,13 +11510,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -11708,46 +12188,46 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="A20" t="s">
         <v>608</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>609</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>610</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" t="s">
+        <v>611</v>
+      </c>
+      <c r="I20" t="s">
+        <v>612</v>
+      </c>
+      <c r="J20" t="s">
+        <v>613</v>
+      </c>
+      <c r="K20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B21" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -11756,22 +12236,22 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="I21" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="J21" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
@@ -11779,150 +12259,150 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>654</v>
       </c>
       <c r="H22" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="I22" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="J22" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="K22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>621</v>
-      </c>
-      <c r="B23" t="s">
-        <v>622</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>623</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
-        <v>624</v>
-      </c>
-      <c r="H23" t="s">
-        <v>625</v>
-      </c>
-      <c r="I23" t="s">
-        <v>626</v>
-      </c>
-      <c r="J23" t="s">
-        <v>627</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
+      <c r="G23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="B24" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>667</v>
+      </c>
+      <c r="I24" t="s">
+        <v>668</v>
+      </c>
+      <c r="J24" t="s">
+        <v>669</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>670</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>672</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
         <v>17</v>
       </c>
-      <c r="H24" t="s">
-        <v>631</v>
-      </c>
-      <c r="I24" t="s">
-        <v>632</v>
-      </c>
-      <c r="J24" t="s">
-        <v>633</v>
-      </c>
-      <c r="K24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="H25" t="s">
+        <v>673</v>
+      </c>
+      <c r="I25" t="s">
+        <v>674</v>
+      </c>
+      <c r="J25" t="s">
+        <v>675</v>
+      </c>
+      <c r="K25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="B26" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -11931,22 +12411,22 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="I26" t="s">
-        <v>644</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="K26" t="s">
         <v>30</v>
@@ -11954,34 +12434,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="B27" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="I27" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="J27" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="K27" t="s">
         <v>30</v>
@@ -11989,34 +12469,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>30</v>
@@ -12024,104 +12504,104 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="B29" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>661</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="I29" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="J29" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="K29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="A30" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" t="s">
+        <v>700</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>701</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>702</v>
+      </c>
+      <c r="I30" t="s">
+        <v>703</v>
+      </c>
+      <c r="J30" t="s">
+        <v>704</v>
+      </c>
+      <c r="K30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="B31" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>707</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="I31" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="J31" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="K31" t="s">
         <v>30</v>
@@ -12129,10 +12609,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="C32" t="s">
         <v>312</v>
@@ -12141,22 +12621,22 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="I32" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="J32" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="K32" t="s">
         <v>30</v>
@@ -12164,34 +12644,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="B33" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>722</v>
       </c>
       <c r="J33" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="K33" t="s">
         <v>30</v>
@@ -12199,104 +12679,104 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="B34" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" t="s">
+        <v>727</v>
+      </c>
+      <c r="I34" t="s">
+        <v>728</v>
+      </c>
+      <c r="J34" t="s">
+        <v>729</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>730</v>
+      </c>
+      <c r="B35" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>732</v>
+      </c>
+      <c r="F35" t="s">
         <v>16</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>64</v>
       </c>
-      <c r="H34" t="s">
-        <v>691</v>
-      </c>
-      <c r="I34" t="s">
-        <v>692</v>
-      </c>
-      <c r="J34" t="s">
-        <v>693</v>
-      </c>
-      <c r="K34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="H35" t="s">
+        <v>733</v>
+      </c>
+      <c r="I35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J35" t="s">
+        <v>735</v>
+      </c>
+      <c r="K35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="B36" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="I36" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="J36" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="K36" t="s">
         <v>30</v>
@@ -12304,10 +12784,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="B37" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -12316,22 +12796,22 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>623</v>
       </c>
       <c r="H37" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="I37" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="J37" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="K37" t="s">
         <v>30</v>
@@ -12339,104 +12819,104 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="B38" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="C38" t="s">
-        <v>714</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>623</v>
       </c>
       <c r="H38" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="I38" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="J38" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="K38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>719</v>
-      </c>
-      <c r="B39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C39" t="s">
-        <v>312</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>721</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>722</v>
-      </c>
-      <c r="I39" t="s">
-        <v>723</v>
-      </c>
-      <c r="J39" t="s">
-        <v>724</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="A39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="B40" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="I40" t="s">
-        <v>729</v>
+        <v>758</v>
       </c>
       <c r="J40" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
@@ -12444,34 +12924,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="B41" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="I41" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="J41" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
@@ -12479,10 +12959,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="B42" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -12491,7 +12971,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -12500,13 +12980,13 @@
         <v>64</v>
       </c>
       <c r="H42" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="I42" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="J42" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="K42" t="s">
         <v>30</v>
@@ -12514,34 +12994,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>743</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
-        <v>744</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>745</v>
+        <v>331</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="H43" t="s">
-        <v>746</v>
+        <v>333</v>
       </c>
       <c r="I43" t="s">
-        <v>747</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>748</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s">
         <v>30</v>
@@ -12549,45 +13029,45 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="B44" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="I44" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="J44" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="K44" t="s">
-        <v>30</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>755</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>756</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -12596,173 +13076,173 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>757</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>624</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>758</v>
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>759</v>
+        <v>115</v>
       </c>
       <c r="J45" t="s">
-        <v>760</v>
+        <v>116</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="A46" t="s">
+        <v>778</v>
+      </c>
+      <c r="B46" t="s">
+        <v>779</v>
+      </c>
+      <c r="C46" t="s">
+        <v>780</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>781</v>
+      </c>
+      <c r="F46" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>782</v>
+      </c>
+      <c r="I46" t="s">
+        <v>783</v>
+      </c>
+      <c r="J46" t="s">
+        <v>784</v>
+      </c>
+      <c r="K46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>761</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>762</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>763</v>
+        <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>764</v>
+        <v>430</v>
       </c>
       <c r="I47" t="s">
-        <v>765</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>766</v>
+        <v>431</v>
       </c>
       <c r="K47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>767</v>
-      </c>
-      <c r="B48" t="s">
-        <v>768</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>769</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="A48" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H48" t="s">
-        <v>770</v>
-      </c>
-      <c r="I48" t="s">
-        <v>771</v>
-      </c>
-      <c r="J48" t="s">
-        <v>772</v>
-      </c>
-      <c r="K48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>773</v>
-      </c>
-      <c r="B49" t="s">
-        <v>774</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>775</v>
-      </c>
-      <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" t="s">
-        <v>776</v>
-      </c>
-      <c r="I49" t="s">
-        <v>777</v>
-      </c>
-      <c r="J49" t="s">
-        <v>778</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="H49" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>799</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -12771,22 +13251,22 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>801</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>802</v>
       </c>
       <c r="I50" t="s">
-        <v>334</v>
+        <v>803</v>
       </c>
       <c r="J50" t="s">
-        <v>335</v>
+        <v>804</v>
       </c>
       <c r="K50" t="s">
         <v>30</v>
@@ -12794,19 +13274,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="B51" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -12815,208 +13295,208 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="I51" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="J51" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K52" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>785</v>
-      </c>
-      <c r="B53" t="s">
-        <v>786</v>
-      </c>
-      <c r="C53" t="s">
-        <v>787</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>788</v>
-      </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="A53" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H53" t="s">
-        <v>789</v>
-      </c>
-      <c r="I53" t="s">
-        <v>790</v>
-      </c>
-      <c r="J53" t="s">
-        <v>791</v>
-      </c>
-      <c r="K53" t="s">
-        <v>30</v>
+      <c r="G53" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>427</v>
+        <v>818</v>
       </c>
       <c r="B54" t="s">
-        <v>428</v>
+        <v>819</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
+        <v>820</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>821</v>
+      </c>
+      <c r="I54" t="s">
+        <v>822</v>
+      </c>
+      <c r="J54" t="s">
+        <v>823</v>
+      </c>
+      <c r="K54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>824</v>
+      </c>
+      <c r="B55" t="s">
+        <v>825</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>826</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>827</v>
+      </c>
+      <c r="I55" t="s">
+        <v>828</v>
+      </c>
+      <c r="J55" t="s">
+        <v>829</v>
+      </c>
+      <c r="K55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>830</v>
+      </c>
+      <c r="B56" t="s">
+        <v>831</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>832</v>
+      </c>
+      <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="H54" t="s">
-        <v>430</v>
-      </c>
-      <c r="I54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" t="s">
-        <v>431</v>
-      </c>
-      <c r="K54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="G56" t="s">
+        <v>623</v>
+      </c>
+      <c r="H56" t="s">
+        <v>833</v>
+      </c>
+      <c r="I56" t="s">
+        <v>834</v>
+      </c>
+      <c r="J56" t="s">
+        <v>835</v>
+      </c>
+      <c r="K56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="B57" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -13025,13 +13505,13 @@
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="I57" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="J57" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="K57" t="s">
         <v>30</v>
@@ -13039,139 +13519,139 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
       <c r="B58" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="I58" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="J58" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>848</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>849</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>850</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>851</v>
       </c>
       <c r="I59" t="s">
-        <v>122</v>
+        <v>852</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>853</v>
       </c>
       <c r="K59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>444</v>
+      <c r="A60" t="s">
+        <v>854</v>
+      </c>
+      <c r="B60" t="s">
+        <v>855</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>856</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>857</v>
+      </c>
+      <c r="I60" t="s">
+        <v>858</v>
+      </c>
+      <c r="J60" t="s">
+        <v>859</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>825</v>
+        <v>860</v>
       </c>
       <c r="B61" t="s">
-        <v>826</v>
+        <v>861</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="I61" t="s">
-        <v>829</v>
+        <v>864</v>
       </c>
       <c r="J61" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="K61" t="s">
         <v>30</v>
@@ -13179,34 +13659,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="B62" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>833</v>
+        <v>868</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="H62" t="s">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="I62" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="J62" t="s">
-        <v>836</v>
+        <v>871</v>
       </c>
       <c r="K62" t="s">
         <v>30</v>
@@ -13214,69 +13694,69 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>837</v>
+        <v>872</v>
       </c>
       <c r="B63" t="s">
-        <v>838</v>
+        <v>873</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>839</v>
+        <v>874</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="I63" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="J63" t="s">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="B64" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>880</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="I64" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="J64" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
@@ -13284,104 +13764,104 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="B65" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="I65" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="J65" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="K65" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>855</v>
-      </c>
-      <c r="B66" t="s">
-        <v>856</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>857</v>
-      </c>
-      <c r="F66" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s">
-        <v>858</v>
-      </c>
-      <c r="I66" t="s">
-        <v>859</v>
-      </c>
-      <c r="J66" t="s">
-        <v>860</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="A66" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="B67" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="I67" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="J67" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -13389,34 +13869,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="B68" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="I68" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="J68" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="K68" t="s">
         <v>30</v>
@@ -13424,10 +13904,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="B69" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -13436,92 +13916,92 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
         <v>17</v>
       </c>
-      <c r="G69" t="s">
-        <v>332</v>
-      </c>
       <c r="H69" t="s">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="I69" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="J69" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>879</v>
-      </c>
-      <c r="B70" t="s">
-        <v>880</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>881</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="A70" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H70" t="s">
-        <v>882</v>
-      </c>
-      <c r="I70" t="s">
-        <v>883</v>
-      </c>
-      <c r="J70" t="s">
-        <v>884</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
+      <c r="H70" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="B71" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="C71" t="s">
-        <v>887</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="H71" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
       <c r="I71" t="s">
-        <v>890</v>
+        <v>926</v>
       </c>
       <c r="J71" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
       <c r="K71" t="s">
         <v>30</v>
@@ -13529,10 +14009,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
       <c r="B72" t="s">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -13541,127 +14021,127 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>931</v>
       </c>
       <c r="H72" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="I72" t="s">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="J72" t="s">
-        <v>897</v>
+        <v>934</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>30</v>
+      <c r="A73" t="s">
+        <v>935</v>
+      </c>
+      <c r="B73" t="s">
+        <v>936</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>937</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>177</v>
+      </c>
+      <c r="H73" t="s">
+        <v>938</v>
+      </c>
+      <c r="I73" t="s">
+        <v>939</v>
+      </c>
+      <c r="J73" t="s">
+        <v>940</v>
+      </c>
+      <c r="K73" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>905</v>
+        <v>941</v>
       </c>
       <c r="B74" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>931</v>
       </c>
       <c r="H74" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="I74" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="J74" t="s">
-        <v>910</v>
+        <v>946</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>911</v>
+        <v>947</v>
       </c>
       <c r="B75" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>913</v>
+        <v>949</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="I75" t="s">
-        <v>915</v>
+        <v>951</v>
       </c>
       <c r="J75" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
       <c r="K75" t="s">
         <v>30</v>
@@ -13669,10 +14149,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="B76" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -13681,22 +14161,22 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>623</v>
       </c>
       <c r="H76" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="I76" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="J76" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="K76" t="s">
         <v>30</v>
@@ -13704,279 +14184,279 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="B77" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H77" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="I77" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="J77" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>929</v>
-      </c>
-      <c r="B79" t="s">
-        <v>930</v>
-      </c>
-      <c r="C79" t="s">
-        <v>175</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s">
-        <v>931</v>
-      </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-      <c r="G79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H79" t="s">
-        <v>932</v>
-      </c>
-      <c r="I79" t="s">
-        <v>933</v>
-      </c>
-      <c r="J79" t="s">
-        <v>934</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="A79" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
       <c r="B80" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>938</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="I80" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
       <c r="J80" t="s">
-        <v>941</v>
+        <v>982</v>
       </c>
       <c r="K80" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>942</v>
-      </c>
-      <c r="B81" t="s">
-        <v>943</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>944</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="A81" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G81" t="s">
-        <v>177</v>
-      </c>
-      <c r="H81" t="s">
-        <v>945</v>
-      </c>
-      <c r="I81" t="s">
-        <v>946</v>
-      </c>
-      <c r="J81" t="s">
-        <v>947</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="G81" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>948</v>
-      </c>
-      <c r="B82" t="s">
-        <v>949</v>
-      </c>
-      <c r="C82" t="s">
-        <v>312</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>950</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="A82" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G82" t="s">
-        <v>938</v>
-      </c>
-      <c r="H82" t="s">
-        <v>951</v>
-      </c>
-      <c r="I82" t="s">
-        <v>952</v>
-      </c>
-      <c r="J82" t="s">
-        <v>953</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="G82" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>954</v>
-      </c>
-      <c r="B83" t="s">
-        <v>955</v>
-      </c>
-      <c r="C83" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>956</v>
-      </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>957</v>
-      </c>
-      <c r="I83" t="s">
-        <v>958</v>
-      </c>
-      <c r="J83" t="s">
-        <v>959</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="A83" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>960</v>
+        <v>1004</v>
       </c>
       <c r="B84" t="s">
-        <v>961</v>
+        <v>1005</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>962</v>
+        <v>1006</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>624</v>
+        <v>202</v>
       </c>
       <c r="H84" t="s">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="I84" t="s">
-        <v>964</v>
+        <v>1008</v>
       </c>
       <c r="J84" t="s">
-        <v>965</v>
+        <v>1009</v>
       </c>
       <c r="K84" t="s">
         <v>30</v>
@@ -13984,10 +14464,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>966</v>
+        <v>1010</v>
       </c>
       <c r="B85" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -13996,22 +14476,22 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>968</v>
+        <v>1012</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="I85" t="s">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="J85" t="s">
-        <v>971</v>
+        <v>1015</v>
       </c>
       <c r="K85" t="s">
         <v>30</v>
@@ -14019,244 +14499,244 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>972</v>
+        <v>1016</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>973</v>
+        <v>1017</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>974</v>
+        <v>1018</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>30</v>
+      <c r="H87" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K87" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
       <c r="B88" t="s">
-        <v>985</v>
+        <v>1029</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>986</v>
+        <v>1030</v>
       </c>
       <c r="F88" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F89" t="s">
         <v>16</v>
       </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" t="s">
-        <v>987</v>
-      </c>
-      <c r="I88" t="s">
-        <v>988</v>
-      </c>
-      <c r="J88" t="s">
-        <v>989</v>
-      </c>
-      <c r="K88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>444</v>
+      <c r="G89" t="s">
+        <v>64</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K89" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>997</v>
+        <v>1040</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>998</v>
+        <v>1041</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1000</v>
+        <v>1042</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1001</v>
+        <v>64</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1002</v>
+        <v>1043</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>1003</v>
+        <v>1044</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1004</v>
+        <v>1045</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="A91" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" t="s">
+        <v>623</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K91" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1011</v>
+        <v>1052</v>
       </c>
       <c r="B92" t="s">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>1014</v>
+        <v>1055</v>
       </c>
       <c r="I92" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="J92" t="s">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="K92" t="s">
         <v>30</v>
@@ -14264,115 +14744,115 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="B93" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
-        <v>1019</v>
+        <v>1060</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>1020</v>
+        <v>1061</v>
       </c>
       <c r="I93" t="s">
-        <v>1021</v>
+        <v>1062</v>
       </c>
       <c r="J93" t="s">
-        <v>1022</v>
+        <v>1063</v>
       </c>
       <c r="K93" t="s">
-        <v>30</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="A94" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K94" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I95" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K95" t="s">
-        <v>444</v>
+      <c r="A95" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="B96" t="s">
-        <v>1036</v>
+        <v>1101</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -14381,22 +14861,22 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>1037</v>
+        <v>1102</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>1103</v>
       </c>
       <c r="H96" t="s">
-        <v>1038</v>
+        <v>1104</v>
       </c>
       <c r="I96" t="s">
-        <v>1039</v>
+        <v>1105</v>
       </c>
       <c r="J96" t="s">
-        <v>1040</v>
+        <v>1106</v>
       </c>
       <c r="K96" t="s">
         <v>30</v>
@@ -14404,10 +14884,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1041</v>
+        <v>1107</v>
       </c>
       <c r="B97" t="s">
-        <v>1042</v>
+        <v>1108</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -14416,92 +14896,92 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>1043</v>
+        <v>1109</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="H97" t="s">
-        <v>1044</v>
+        <v>1110</v>
       </c>
       <c r="I97" t="s">
-        <v>1045</v>
+        <v>30</v>
       </c>
       <c r="J97" t="s">
-        <v>1046</v>
+        <v>1111</v>
       </c>
       <c r="K97" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="A98" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F98" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>30</v>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K98" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1053</v>
+        <v>1118</v>
       </c>
       <c r="B99" t="s">
-        <v>1054</v>
+        <v>1119</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>1055</v>
+        <v>1120</v>
       </c>
       <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
         <v>49</v>
       </c>
-      <c r="G99" t="s">
-        <v>624</v>
-      </c>
       <c r="H99" t="s">
-        <v>1056</v>
+        <v>1121</v>
       </c>
       <c r="I99" t="s">
-        <v>1057</v>
+        <v>1122</v>
       </c>
       <c r="J99" t="s">
-        <v>1058</v>
+        <v>1123</v>
       </c>
       <c r="K99" t="s">
         <v>30</v>
@@ -14509,10 +14989,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1059</v>
+        <v>1124</v>
       </c>
       <c r="B100" t="s">
-        <v>1060</v>
+        <v>1125</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -14521,22 +15001,22 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>1061</v>
+        <v>1126</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="H100" t="s">
-        <v>1062</v>
+        <v>1127</v>
       </c>
       <c r="I100" t="s">
-        <v>1063</v>
+        <v>1128</v>
       </c>
       <c r="J100" t="s">
-        <v>1064</v>
+        <v>1129</v>
       </c>
       <c r="K100" t="s">
         <v>30</v>
@@ -14544,209 +15024,209 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1059</v>
+        <v>1130</v>
       </c>
       <c r="B101" t="s">
-        <v>1060</v>
+        <v>1131</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>1061</v>
+        <v>1132</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="H101" t="s">
-        <v>1062</v>
+        <v>1133</v>
       </c>
       <c r="I101" t="s">
-        <v>1063</v>
+        <v>1134</v>
       </c>
       <c r="J101" t="s">
-        <v>1064</v>
+        <v>1135</v>
       </c>
       <c r="K101" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C102" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I102" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="A102" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="B103" t="s">
-        <v>1072</v>
+        <v>1144</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>1073</v>
+        <v>1145</v>
       </c>
       <c r="F103" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G103" t="s">
         <v>56</v>
       </c>
       <c r="H103" t="s">
-        <v>1074</v>
+        <v>1146</v>
       </c>
       <c r="I103" t="s">
-        <v>1075</v>
+        <v>1147</v>
       </c>
       <c r="J103" t="s">
-        <v>1076</v>
+        <v>1148</v>
       </c>
       <c r="K103" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C104" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
-      <c r="H104" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I104" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K104" t="s">
-        <v>30</v>
+      <c r="A104" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I105" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="A105" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="B106" t="s">
-        <v>1090</v>
+        <v>1162</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>1091</v>
+        <v>1163</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="H106" t="s">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="I106" t="s">
-        <v>1093</v>
+        <v>1165</v>
       </c>
       <c r="J106" t="s">
-        <v>1094</v>
+        <v>1166</v>
       </c>
       <c r="K106" t="s">
         <v>30</v>
@@ -14754,34 +15234,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>1095</v>
+        <v>1167</v>
       </c>
       <c r="B107" t="s">
-        <v>1096</v>
+        <v>1168</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>1097</v>
+        <v>1169</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>556</v>
       </c>
       <c r="H107" t="s">
-        <v>1098</v>
+        <v>1170</v>
       </c>
       <c r="I107" t="s">
-        <v>1099</v>
+        <v>1171</v>
       </c>
       <c r="J107" t="s">
-        <v>1100</v>
+        <v>1172</v>
       </c>
       <c r="K107" t="s">
         <v>30</v>
@@ -14789,10 +15269,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>1101</v>
+        <v>1173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1102</v>
+        <v>1174</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>30</v>
@@ -14801,22 +15281,22 @@
         <v>14</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1103</v>
+        <v>1175</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>157</v>
+        <v>623</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1104</v>
+        <v>1176</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1105</v>
+        <v>1177</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1106</v>
+        <v>1178</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>30</v>
@@ -14824,10 +15304,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="B109" t="s">
-        <v>1108</v>
+        <v>1180</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
@@ -14836,22 +15316,22 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>1109</v>
+        <v>1181</v>
       </c>
       <c r="F109" t="s">
-        <v>795</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>1110</v>
+        <v>64</v>
       </c>
       <c r="H109" t="s">
-        <v>1111</v>
+        <v>1182</v>
       </c>
       <c r="I109" t="s">
-        <v>1112</v>
+        <v>1183</v>
       </c>
       <c r="J109" t="s">
-        <v>1113</v>
+        <v>1184</v>
       </c>
       <c r="K109" t="s">
         <v>30</v>
@@ -14859,10 +15339,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1114</v>
+        <v>1185</v>
       </c>
       <c r="B110" t="s">
-        <v>1115</v>
+        <v>1186</v>
       </c>
       <c r="C110" t="s">
         <v>30</v>
@@ -14871,22 +15351,22 @@
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>1116</v>
+        <v>1187</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>202</v>
+        <v>1188</v>
       </c>
       <c r="H110" t="s">
-        <v>1117</v>
+        <v>1189</v>
       </c>
       <c r="I110" t="s">
-        <v>30</v>
+        <v>1190</v>
       </c>
       <c r="J110" t="s">
-        <v>1118</v>
+        <v>1191</v>
       </c>
       <c r="K110" t="s">
         <v>30</v>
@@ -14894,19 +15374,19 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1119</v>
+        <v>1192</v>
       </c>
       <c r="B111" t="s">
-        <v>1120</v>
+        <v>1193</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>1121</v>
+        <v>1194</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
@@ -14915,24 +15395,24 @@
         <v>34</v>
       </c>
       <c r="H111" t="s">
-        <v>1122</v>
+        <v>1195</v>
       </c>
       <c r="I111" t="s">
-        <v>1123</v>
+        <v>1196</v>
       </c>
       <c r="J111" t="s">
-        <v>1124</v>
+        <v>1197</v>
       </c>
       <c r="K111" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1125</v>
+        <v>1198</v>
       </c>
       <c r="B112" t="s">
-        <v>1126</v>
+        <v>1199</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -14941,22 +15421,22 @@
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>1127</v>
+        <v>1200</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>1128</v>
+        <v>1201</v>
       </c>
       <c r="I112" t="s">
-        <v>1129</v>
+        <v>1202</v>
       </c>
       <c r="J112" t="s">
-        <v>1130</v>
+        <v>1203</v>
       </c>
       <c r="K112" t="s">
         <v>30</v>
@@ -14964,244 +15444,244 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1131</v>
+        <v>1204</v>
       </c>
       <c r="B113" t="s">
-        <v>1132</v>
+        <v>1205</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="E113" t="s">
-        <v>1133</v>
+        <v>1206</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>423</v>
+        <v>986</v>
       </c>
       <c r="H113" t="s">
-        <v>1134</v>
+        <v>1207</v>
       </c>
       <c r="I113" t="s">
-        <v>1135</v>
+        <v>1208</v>
       </c>
       <c r="J113" t="s">
-        <v>1136</v>
+        <v>1209</v>
       </c>
       <c r="K113" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1137</v>
+        <v>1210</v>
       </c>
       <c r="B114" t="s">
-        <v>1138</v>
+        <v>1211</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>1139</v>
+        <v>1212</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>1140</v>
+        <v>1213</v>
       </c>
       <c r="I114" t="s">
-        <v>1141</v>
+        <v>1214</v>
       </c>
       <c r="J114" t="s">
-        <v>1142</v>
+        <v>1215</v>
       </c>
       <c r="K114" t="s">
-        <v>30</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>444</v>
+      <c r="A115" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>423</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K115" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1150</v>
+        <v>1222</v>
       </c>
       <c r="B116" t="s">
-        <v>1151</v>
+        <v>1223</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>1152</v>
+        <v>1224</v>
       </c>
       <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F117" t="s">
         <v>16</v>
       </c>
-      <c r="G116" t="s">
-        <v>56</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1155</v>
-      </c>
-      <c r="K116" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" t="s">
         <v>49</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>444</v>
+      <c r="H117" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K117" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C118" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>30</v>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K118" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1168</v>
+        <v>1239</v>
       </c>
       <c r="B119" t="s">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>1170</v>
+        <v>1241</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H119" t="s">
-        <v>1171</v>
+        <v>1242</v>
       </c>
       <c r="I119" t="s">
-        <v>1172</v>
+        <v>1243</v>
       </c>
       <c r="J119" t="s">
-        <v>1173</v>
+        <v>1244</v>
       </c>
       <c r="K119" t="s">
         <v>30</v>
@@ -15209,10 +15689,10 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1131</v>
+        <v>1245</v>
       </c>
       <c r="B120" t="s">
-        <v>1132</v>
+        <v>1246</v>
       </c>
       <c r="C120" t="s">
         <v>30</v>
@@ -15221,22 +15701,22 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>1133</v>
+        <v>1247</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>423</v>
+        <v>26</v>
       </c>
       <c r="H120" t="s">
-        <v>1134</v>
+        <v>1248</v>
       </c>
       <c r="I120" t="s">
-        <v>1135</v>
+        <v>1249</v>
       </c>
       <c r="J120" t="s">
-        <v>1136</v>
+        <v>1250</v>
       </c>
       <c r="K120" t="s">
         <v>30</v>
@@ -15244,115 +15724,115 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="B121" t="s">
-        <v>1175</v>
+        <v>1252</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>1176</v>
+        <v>1253</v>
       </c>
       <c r="F121" t="s">
+        <v>789</v>
+      </c>
+      <c r="G121" t="s">
+        <v>789</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K121" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F122" t="s">
+        <v>64</v>
+      </c>
+      <c r="G122" t="s">
         <v>16</v>
       </c>
-      <c r="G121" t="s">
-        <v>556</v>
-      </c>
-      <c r="H121" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1179</v>
-      </c>
-      <c r="K121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="H122" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K122" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1186</v>
+        <v>1263</v>
       </c>
       <c r="B123" t="s">
-        <v>1187</v>
+        <v>1264</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>1188</v>
+        <v>1265</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
         <v>64</v>
       </c>
       <c r="H123" t="s">
-        <v>1189</v>
+        <v>1266</v>
       </c>
       <c r="I123" t="s">
-        <v>1190</v>
+        <v>1267</v>
       </c>
       <c r="J123" t="s">
-        <v>1191</v>
+        <v>1268</v>
       </c>
       <c r="K123" t="s">
-        <v>30</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1192</v>
+        <v>1269</v>
       </c>
       <c r="B124" t="s">
-        <v>1193</v>
+        <v>1270</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -15361,22 +15841,22 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>1194</v>
+        <v>1271</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>1195</v>
+        <v>56</v>
       </c>
       <c r="H124" t="s">
-        <v>1196</v>
+        <v>1272</v>
       </c>
       <c r="I124" t="s">
-        <v>1197</v>
+        <v>1273</v>
       </c>
       <c r="J124" t="s">
-        <v>1198</v>
+        <v>1274</v>
       </c>
       <c r="K124" t="s">
         <v>30</v>
@@ -15384,150 +15864,150 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1199</v>
+        <v>1275</v>
       </c>
       <c r="B125" t="s">
-        <v>1200</v>
+        <v>1276</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>1201</v>
+        <v>1277</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="H125" t="s">
-        <v>1202</v>
+        <v>1278</v>
       </c>
       <c r="I125" t="s">
-        <v>1203</v>
+        <v>1279</v>
       </c>
       <c r="J125" t="s">
-        <v>1204</v>
+        <v>1280</v>
       </c>
       <c r="K125" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1205</v>
+        <v>1281</v>
       </c>
       <c r="B126" t="s">
-        <v>1206</v>
+        <v>1282</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>1207</v>
+        <v>1283</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="H126" t="s">
-        <v>1208</v>
+        <v>1284</v>
       </c>
       <c r="I126" t="s">
-        <v>1209</v>
+        <v>1285</v>
       </c>
       <c r="J126" t="s">
-        <v>1210</v>
+        <v>1286</v>
       </c>
       <c r="K126" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>1211</v>
+        <v>1287</v>
       </c>
       <c r="B127" t="s">
-        <v>1212</v>
+        <v>1288</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D127" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>1213</v>
+        <v>1289</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
-        <v>993</v>
+        <v>113</v>
       </c>
       <c r="H127" t="s">
-        <v>1214</v>
+        <v>1290</v>
       </c>
       <c r="I127" t="s">
-        <v>1215</v>
+        <v>963</v>
       </c>
       <c r="J127" t="s">
-        <v>1216</v>
+        <v>1291</v>
       </c>
       <c r="K127" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>1217</v>
+        <v>1292</v>
       </c>
       <c r="B128" t="s">
-        <v>1218</v>
+        <v>1293</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>1219</v>
+        <v>1294</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H128" t="s">
-        <v>1220</v>
+        <v>1295</v>
       </c>
       <c r="I128" t="s">
-        <v>1221</v>
+        <v>1296</v>
       </c>
       <c r="J128" t="s">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="K128" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1223</v>
+        <v>1298</v>
       </c>
       <c r="B129" t="s">
-        <v>1224</v>
+        <v>1299</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -15536,208 +16016,208 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>1225</v>
+        <v>1300</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="H129" t="s">
-        <v>1226</v>
+        <v>1301</v>
       </c>
       <c r="I129" t="s">
-        <v>1227</v>
+        <v>1302</v>
       </c>
       <c r="J129" t="s">
-        <v>1228</v>
+        <v>1303</v>
       </c>
       <c r="K129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="A130" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H130" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="H132" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G133" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H131" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I131" t="s">
-        <v>30</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C132" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="H133" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K132" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C133" t="s">
-        <v>30</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1250</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K133" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C134" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I134" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K134" t="s">
-        <v>30</v>
+      <c r="G134" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>1258</v>
+        <v>1334</v>
       </c>
       <c r="B135" t="s">
-        <v>1259</v>
+        <v>1335</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -15746,57 +16226,57 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>1260</v>
+        <v>1336</v>
       </c>
       <c r="F135" t="s">
-        <v>796</v>
+        <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>796</v>
+        <v>202</v>
       </c>
       <c r="H135" t="s">
-        <v>1261</v>
+        <v>1337</v>
       </c>
       <c r="I135" t="s">
-        <v>1262</v>
+        <v>1338</v>
       </c>
       <c r="J135" t="s">
-        <v>1263</v>
+        <v>1339</v>
       </c>
       <c r="K135" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1264</v>
+        <v>1340</v>
       </c>
       <c r="B136" t="s">
-        <v>1265</v>
+        <v>1341</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>1266</v>
+        <v>1342</v>
       </c>
       <c r="F136" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="H136" t="s">
-        <v>1267</v>
+        <v>1343</v>
       </c>
       <c r="I136" t="s">
-        <v>1268</v>
+        <v>1344</v>
       </c>
       <c r="J136" t="s">
-        <v>1269</v>
+        <v>1345</v>
       </c>
       <c r="K136" t="s">
         <v>30</v>
@@ -15804,10 +16284,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1270</v>
+        <v>1346</v>
       </c>
       <c r="B137" t="s">
-        <v>1271</v>
+        <v>1347</v>
       </c>
       <c r="C137" t="s">
         <v>175</v>
@@ -15816,77 +16296,77 @@
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>1272</v>
+        <v>1348</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>64</v>
+        <v>1349</v>
       </c>
       <c r="H137" t="s">
-        <v>1273</v>
+        <v>1350</v>
       </c>
       <c r="I137" t="s">
-        <v>1274</v>
+        <v>1351</v>
       </c>
       <c r="J137" t="s">
-        <v>1275</v>
+        <v>1352</v>
       </c>
       <c r="K137" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C138" t="s">
-        <v>30</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="A138" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G138" t="s">
-        <v>56</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K138" t="s">
+      <c r="G138" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K138" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1282</v>
+        <v>1359</v>
       </c>
       <c r="B139" t="s">
-        <v>1283</v>
+        <v>1360</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>1284</v>
+        <v>1361</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
@@ -15895,13 +16375,13 @@
         <v>202</v>
       </c>
       <c r="H139" t="s">
-        <v>1285</v>
+        <v>1362</v>
       </c>
       <c r="I139" t="s">
-        <v>1286</v>
+        <v>1363</v>
       </c>
       <c r="J139" t="s">
-        <v>1287</v>
+        <v>1364</v>
       </c>
       <c r="K139" t="s">
         <v>30</v>
@@ -15909,384 +16389,384 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1288</v>
+        <v>1365</v>
       </c>
       <c r="B140" t="s">
-        <v>1289</v>
+        <v>1366</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>1290</v>
+        <v>1367</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G140" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="H140" t="s">
-        <v>1291</v>
+        <v>1368</v>
       </c>
       <c r="I140" t="s">
-        <v>1292</v>
+        <v>1369</v>
       </c>
       <c r="J140" t="s">
-        <v>1293</v>
+        <v>1370</v>
       </c>
       <c r="K140" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1294</v>
+        <v>297</v>
       </c>
       <c r="B141" t="s">
-        <v>1295</v>
+        <v>298</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>1296</v>
+        <v>299</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" t="s">
+        <v>300</v>
+      </c>
+      <c r="I141" t="s">
+        <v>301</v>
+      </c>
+      <c r="J141" t="s">
+        <v>302</v>
+      </c>
+      <c r="K141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>306</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F146" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K147" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
         <v>113</v>
       </c>
-      <c r="H141" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I141" t="s">
-        <v>970</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="H148" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K148" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1303</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K142" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C143" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I143" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K143" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C149" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="G149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1346</v>
-      </c>
-      <c r="K149" t="s">
+      <c r="H149" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1347</v>
+        <v>1413</v>
       </c>
       <c r="B150" t="s">
-        <v>1348</v>
+        <v>1414</v>
       </c>
       <c r="C150" t="s">
-        <v>62</v>
+        <v>707</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>1349</v>
+        <v>1415</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="H150" t="s">
-        <v>1350</v>
+        <v>1416</v>
       </c>
       <c r="I150" t="s">
-        <v>1351</v>
+        <v>1417</v>
       </c>
       <c r="J150" t="s">
-        <v>1352</v>
+        <v>1418</v>
       </c>
       <c r="K150" t="s">
         <v>30</v>
@@ -16294,104 +16774,104 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1353</v>
+        <v>1419</v>
       </c>
       <c r="B151" t="s">
-        <v>1354</v>
+        <v>1420</v>
       </c>
       <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K151" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C152" t="s">
         <v>175</v>
       </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H151" t="s">
-        <v>1357</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1359</v>
-      </c>
-      <c r="K151" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F152" t="s">
+        <v>64</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K152" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1366</v>
+        <v>1431</v>
       </c>
       <c r="B153" t="s">
-        <v>1367</v>
+        <v>1432</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E153" t="s">
-        <v>1368</v>
+        <v>1433</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G153" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="H153" t="s">
-        <v>1369</v>
+        <v>1434</v>
       </c>
       <c r="I153" t="s">
-        <v>1370</v>
+        <v>1435</v>
       </c>
       <c r="J153" t="s">
-        <v>1371</v>
+        <v>1436</v>
       </c>
       <c r="K153" t="s">
         <v>30</v>
@@ -16399,10 +16879,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1372</v>
+        <v>1437</v>
       </c>
       <c r="B154" t="s">
-        <v>1373</v>
+        <v>1438</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
@@ -16411,103 +16891,103 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>1374</v>
+        <v>1439</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
+        <v>64</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
         <v>34</v>
       </c>
-      <c r="H154" t="s">
-        <v>1375</v>
-      </c>
-      <c r="I154" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1377</v>
-      </c>
-      <c r="K154" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>297</v>
-      </c>
-      <c r="B155" t="s">
-        <v>298</v>
-      </c>
-      <c r="C155" t="s">
-        <v>30</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s">
-        <v>34</v>
-      </c>
-      <c r="H155" t="s">
-        <v>300</v>
-      </c>
-      <c r="I155" t="s">
-        <v>301</v>
-      </c>
-      <c r="J155" t="s">
-        <v>302</v>
-      </c>
-      <c r="K155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="H156" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K156" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>1383</v>
+        <v>1455</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1384</v>
+        <v>1456</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>30</v>
@@ -16516,22 +16996,22 @@
         <v>14</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1385</v>
+        <v>1457</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>901</v>
+        <v>202</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1386</v>
+        <v>306</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1387</v>
+        <v>1458</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>1388</v>
+        <v>1459</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1389</v>
+        <v>1460</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>30</v>
@@ -16539,115 +17019,115 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>1390</v>
+        <v>1461</v>
       </c>
       <c r="B158" t="s">
-        <v>1391</v>
+        <v>1462</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>1392</v>
+        <v>1463</v>
       </c>
       <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
         <v>17</v>
       </c>
-      <c r="G158" t="s">
-        <v>306</v>
-      </c>
       <c r="H158" t="s">
-        <v>1393</v>
+        <v>1464</v>
       </c>
       <c r="I158" t="s">
-        <v>1394</v>
+        <v>1465</v>
       </c>
       <c r="J158" t="s">
-        <v>1395</v>
+        <v>1466</v>
       </c>
       <c r="K158" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>1396</v>
+        <v>1467</v>
       </c>
       <c r="B159" t="s">
-        <v>1397</v>
+        <v>1468</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>1398</v>
+        <v>1469</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H159" t="s">
-        <v>1399</v>
+        <v>1470</v>
       </c>
       <c r="I159" t="s">
-        <v>1400</v>
+        <v>1471</v>
       </c>
       <c r="J159" t="s">
-        <v>1401</v>
+        <v>1472</v>
       </c>
       <c r="K159" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C160" t="s">
-        <v>30</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>34</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1406</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K160" t="s">
+      <c r="A160" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K160" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1408</v>
+        <v>1479</v>
       </c>
       <c r="B161" t="s">
-        <v>1409</v>
+        <v>1480</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -16656,129 +17136,479 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>1410</v>
+        <v>1481</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H161" t="s">
-        <v>1411</v>
+        <v>1482</v>
       </c>
       <c r="I161" t="s">
-        <v>1412</v>
+        <v>1483</v>
       </c>
       <c r="J161" t="s">
-        <v>1413</v>
+        <v>1484</v>
       </c>
       <c r="K161" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C162" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
-        <v>113</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1418</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1419</v>
-      </c>
-      <c r="K162" t="s">
-        <v>444</v>
+      <c r="A162" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>285</v>
+        <v>1491</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>286</v>
+        <v>1492</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>287</v>
+        <v>1493</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F166" t="s">
+        <v>64</v>
+      </c>
+      <c r="G166" t="s">
+        <v>56</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F168" t="s">
+        <v>49</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F169" t="s">
         <v>17</v>
       </c>
-      <c r="H163" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C164" t="s">
-        <v>714</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="G169" t="s">
+        <v>113</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>620</v>
+      </c>
+      <c r="B170" t="s">
+        <v>621</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>622</v>
+      </c>
+      <c r="F170" t="s">
         <v>16</v>
       </c>
-      <c r="G164" t="s">
-        <v>202</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I164" t="s">
-        <v>1424</v>
-      </c>
-      <c r="J164" t="s">
-        <v>1425</v>
-      </c>
-      <c r="K164" t="s">
+      <c r="G170" t="s">
+        <v>623</v>
+      </c>
+      <c r="H170" t="s">
+        <v>624</v>
+      </c>
+      <c r="I170" t="s">
+        <v>625</v>
+      </c>
+      <c r="J170" t="s">
+        <v>626</v>
+      </c>
+      <c r="K170" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>627</v>
+      </c>
+      <c r="B171" t="s">
+        <v>628</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>629</v>
+      </c>
+      <c r="F171" t="s">
+        <v>41</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" t="s">
+        <v>630</v>
+      </c>
+      <c r="I171" t="s">
+        <v>631</v>
+      </c>
+      <c r="J171" t="s">
+        <v>632</v>
+      </c>
+      <c r="K171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>639</v>
+      </c>
+      <c r="B173" t="s">
+        <v>640</v>
+      </c>
+      <c r="C173" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>641</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" t="s">
+        <v>642</v>
+      </c>
+      <c r="I173" t="s">
+        <v>643</v>
+      </c>
+      <c r="J173" t="s">
+        <v>644</v>
+      </c>
+      <c r="K173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>645</v>
+      </c>
+      <c r="B174" t="s">
+        <v>646</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>647</v>
+      </c>
+      <c r="F174" t="s">
+        <v>49</v>
+      </c>
+      <c r="G174" t="s">
+        <v>113</v>
+      </c>
+      <c r="H174" t="s">
+        <v>648</v>
+      </c>
+      <c r="I174" t="s">
+        <v>649</v>
+      </c>
+      <c r="J174" t="s">
+        <v>650</v>
+      </c>
+      <c r="K174" t="s">
         <v>30</v>
       </c>
     </row>
@@ -16791,9 +17621,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -17469,9 +18314,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
